--- a/backend/src/main/resources/excel/test/mini_mini_maillage.xlsx
+++ b/backend/src/main/resources/excel/test/mini_mini_maillage.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Movies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\kosc-v4\kosc\backend\src\main\resources\excel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E2AECB1-4829-4FD6-8C8E-E97DDD5E6200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD54146-7392-4DA2-842C-2F4BF99616FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C72200F5-7885-4EF6-9AFD-9C0C3DC4F03D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C72200F5-7885-4EF6-9AFD-9C0C3DC4F03D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -7055,11 +7054,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3E4975-EC4A-47A0-8473-0B39D4D61F5E}">
   <dimension ref="A1:EP100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="DR5" workbookViewId="0">
+      <selection activeCell="EC22" sqref="EC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:146">
       <c r="A1" s="1" t="s">
@@ -13553,7 +13552,7 @@
       <c r="EA22" s="17"/>
       <c r="EB22" s="17"/>
       <c r="EC22" s="18">
-        <v>44882</v>
+        <v>44882.208333333336</v>
       </c>
       <c r="ED22" s="19">
         <v>0.33333333333333331</v>
